--- a/tests/MYJ_TEST_DATA.xlsx
+++ b/tests/MYJ_TEST_DATA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qkrwl\OneDrive\바탕 화면\202420HY33102_TrademarkApplicationAssistant\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E0D8E7-1507-49F0-A73D-981EFB4A8D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A876CEF-85C5-4157-86C0-9CA4755AC38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="2685" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="139">
   <si>
     <t>출원번호</t>
   </si>
@@ -441,13 +441,35 @@
   </si>
   <si>
     <t>HelloKimchi</t>
+  </si>
+  <si>
+    <t>건강하고 맛있는 치킨! 삼계치킨 GINSENG CHICKEN</t>
+  </si>
+  <si>
+    <t>출원상표는 아래와 같이 지정상품의 명칭이 불명확하므로 등록을 받을 수 없습니다.</t>
+  </si>
+  <si>
+    <r>
+      <t>4020</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>190102212</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -502,8 +524,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -516,8 +545,14 @@
         <bgColor rgb="FFD0D0D0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -554,11 +589,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -606,6 +656,9 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -824,14 +877,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="2" max="2" width="43" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="146" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46.85546875" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" customWidth="1"/>
     <col min="5" max="26" width="7.5703125" customWidth="1"/>
@@ -1522,7 +1575,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="17.25" customHeight="1">
+    <row r="49" spans="1:5" ht="17.25" customHeight="1" thickBot="1">
       <c r="A49" s="5" t="s">
         <v>134</v>
       </c>
@@ -1534,11 +1587,19 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A50" s="5"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="12"/>
+    <row r="50" spans="1:5" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A50" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="51" spans="1:5" ht="17.25" customHeight="1">
       <c r="A51" s="5"/>
